--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioana\Desktop\vvss\01_Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAC369-9994-46AB-A1EE-91E7ABF6836D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F54988-9CFB-4F3C-A1F4-BE54D54B78F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,23 +18,73 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Petrescu Andrei</t>
+  </si>
   <si>
     <t>Document  Title:</t>
   </si>
   <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Rotaru Ioana-Claudia</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Serban Calin-Gabriel</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
-    <t>Reviewer Name:</t>
-  </si>
-  <si>
-    <t>do not print this form</t>
+    <t>04.03.2021</t>
   </si>
   <si>
     <t>Crt. No.</t>
@@ -49,109 +99,215 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Lipseste tipul aplicatiei (mobil, desktop, web)</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza daca datele sunt salvate in fisier</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza cum se face afisarea (lista, tabel)</t>
+  </si>
+  <si>
+    <t>Lipsesc informatii despre forma fisierului</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Nu se specifica cum se indica ca un task e activ sau nu (ex: numar: 1=activ, 0=inactiv)</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza ce informatii se schimba din task</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Architectural Design Document</t>
+    <t>Serban Calin - Gabriel</t>
+  </si>
+  <si>
+    <t>06.03.2021</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Notificator</t>
+  </si>
+  <si>
+    <t>Notificator nu trebuie sa fie in folderul Controller ci in Services</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Main-ul nu are sens sa se afle in folderul View</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Classes nu au specificatii</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>TasksOperations</t>
+  </si>
+  <si>
+    <t>Operatiile unui task trebuie incluse in clasa Task respectiv TaskList (incapsulare)</t>
+  </si>
+  <si>
+    <t>TaskIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operatiile de i/o ale unui task trebuie incluse in clasa Task respectiv TaskList </t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Lipsa unui Repository</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Incearca sa semene a Repopository dar nu are toate elementele CRUD</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Lipsa unui validator</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
   </si>
   <si>
     <t>Coding Document</t>
   </si>
   <si>
-    <t>Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Requirements Defects</t>
-  </si>
-  <si>
-    <t>Student 1:</t>
-  </si>
-  <si>
-    <t>Student 2:</t>
-  </si>
-  <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Echipa</t>
-  </si>
-  <si>
-    <t>Grupa</t>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>ArrayTaskList:55</t>
+  </si>
+  <si>
+    <t>task.equals(null) va da mereu false. Ar trebui folosit task == null</t>
+  </si>
+  <si>
+    <t>Task:110</t>
+  </si>
+  <si>
+    <t>Ar trebui returnat timeAfter</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Nu se asigura inchiderea fisierelor in cazul unor erori</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>Exista metode care nu arunca IOException</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Edit/More fara un task selectat produc eroare</t>
+  </si>
+  <si>
+    <t>DateService</t>
+  </si>
+  <si>
+    <t>Filtrarea cu date invalide produce NullPointerException/NumberFormatException</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>NewEditController</t>
+  </si>
+  <si>
+    <t>Mesajele de eroare pt date invalide nu sunt destul de clare</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Validarile nu ar trebui facute in constructor, ci separat, de un validator</t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File, Line</t>
-  </si>
-  <si>
     <t>After/Argument</t>
   </si>
   <si>
-    <t>Numele si prenumele</t>
-  </si>
-  <si>
-    <t>Tool-based Code Analysis</t>
-  </si>
-  <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
-    <t>Petrescu Andrei</t>
-  </si>
-  <si>
-    <t>Rotaru Ioana-Claudia</t>
-  </si>
-  <si>
-    <t>Serban Calin-Gabriel</t>
-  </si>
-  <si>
-    <t>C01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +364,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -309,77 +472,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -725,273 +895,413 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="30">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -1015,194 +1325,330 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1210,8 +1656,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1219,8 +1665,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1228,8 +1674,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1237,8 +1683,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1246,8 +1692,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1255,8 +1701,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1264,8 +1710,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1273,8 +1719,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1282,14 +1728,18 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17"/>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -1313,199 +1763,331 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.45" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="30">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1513,8 +2095,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1522,8 +2104,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1531,8 +2113,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1540,8 +2122,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1549,8 +2131,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1558,8 +2140,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1567,8 +2149,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1576,8 +2158,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1585,8 +2167,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1594,8 +2176,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1603,8 +2185,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1612,8 +2194,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5">
+      <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1621,14 +2203,18 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13"/>
+    <row r="31" spans="2:5">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="17"/>
+      <c r="C32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1656,124 +2242,164 @@
       <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+      <c r="J2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="C9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
@@ -1781,9 +2407,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
@@ -1791,9 +2422,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1801,9 +2437,14 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1811,9 +2452,14 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1821,9 +2467,14 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1831,9 +2482,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1842,8 +2497,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="2:6">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1852,8 +2507,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:6">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1862,8 +2517,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1872,8 +2527,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:6">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1882,8 +2537,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:6">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1892,8 +2547,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1902,8 +2557,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:6">
+      <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1912,8 +2567,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:6">
+      <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1922,8 +2577,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:6">
+      <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1932,8 +2587,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+    <row r="27" spans="2:6">
+      <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1942,8 +2597,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="2:6">
+      <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1952,8 +2607,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6">
+      <c r="B29" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1962,8 +2617,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6">
+      <c r="B30" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1972,16 +2627,21 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+    <row r="31" spans="2:6">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="17"/>
+      <c r="C32" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23902"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioana\Desktop\vvss\01_Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F54988-9CFB-4F3C-A1F4-BE54D54B78F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5054BB-663B-4EEE-9E8A-4F427CDC764D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>do not print this form</t>
   </si>
@@ -141,6 +141,12 @@
     <t>Nu se precizeaza ce informatii se schimba din task</t>
   </si>
   <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>Lipsesc informatii legate de validare</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
@@ -292,6 +298,96 @@
   </si>
   <si>
     <t>After/Argument</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, 56</t>
+  </si>
+  <si>
+    <t>Condition always evaluates to false</t>
+  </si>
+  <si>
+    <t>if(tasks.equals(null))..</t>
+  </si>
+  <si>
+    <t>Se elimina conditia</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, 144</t>
+  </si>
+  <si>
+    <t>Variable named after class attribute</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>taskList</t>
+  </si>
+  <si>
+    <t>NewEditController, 81</t>
+  </si>
+  <si>
+    <t>No default case</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>default: break</t>
+  </si>
+  <si>
+    <t>Notificator, 42</t>
+  </si>
+  <si>
+    <t>If statement not merged</t>
+  </si>
+  <si>
+    <t>if(!t.isRepeated()){if(..)...</t>
+  </si>
+  <si>
+    <t>if (!t.isRepeated() &amp;&amp; getTimeInMinutes(currentDate) == getTimeInMinutes(t.getTime()))</t>
+  </si>
+  <si>
+    <t>Task, 96</t>
+  </si>
+  <si>
+    <t>Used !(return..) operator instead of !=</t>
+  </si>
+  <si>
+    <t>!(return...)</t>
+  </si>
+  <si>
+    <t>this.interval != 0</t>
+  </si>
+  <si>
+    <t>Notificator, 50</t>
+  </si>
+  <si>
+    <t>Cast needed for one of the variables</t>
+  </si>
+  <si>
+    <t>miliseconds</t>
+  </si>
+  <si>
+    <t>(long)miliseconds</t>
+  </si>
+  <si>
+    <t>TasksService, 42</t>
+  </si>
+  <si>
+    <t>Variable created before being returned</t>
+  </si>
+  <si>
+    <t>filter=...; return filter;</t>
+  </si>
+  <si>
+    <t>return &lt;expresion&gt;</t>
+  </si>
+  <si>
+    <t>TasksService, 53</t>
+  </si>
+  <si>
+    <t>resut=...; return result;</t>
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
@@ -896,7 +992,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1218,23 +1314,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="30">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="16">
@@ -1299,7 +1407,7 @@
     <row r="27" spans="2:5">
       <c r="B27" s="17"/>
       <c r="C27" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
@@ -1325,7 +1433,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1467,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="17"/>
       <c r="B2" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1399,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="17"/>
@@ -1418,7 +1526,7 @@
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1441,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="17"/>
@@ -1457,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="17"/>
@@ -1492,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1513,13 +1621,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1534,13 +1642,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1555,13 +1663,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1576,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -1597,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1618,13 +1726,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -1638,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1737,7 +1845,7 @@
     <row r="28" spans="2:5">
       <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
@@ -1763,7 +1871,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1798,7 +1906,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="17"/>
       <c r="B2" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1838,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="17"/>
@@ -1931,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1952,13 +2060,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1973,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1994,13 +2102,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -2015,13 +2123,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2036,13 +2144,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2057,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2077,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -2212,7 +2320,7 @@
     <row r="32" spans="2:5">
       <c r="B32" s="17"/>
       <c r="C32" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
@@ -2238,8 +2346,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2274,7 +2382,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="17"/>
       <c r="B2" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2311,7 +2419,7 @@
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -2367,135 +2475,199 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="75">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" ht="30">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="16">
@@ -2637,7 +2809,7 @@
     <row r="32" spans="2:6">
       <c r="B32" s="17"/>
       <c r="C32" s="35" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
